--- a/Apresentacao/src/wwwroot/consultaPorData.xlsx
+++ b/Apresentacao/src/wwwroot/consultaPorData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t xml:space="preserve">idDenuncia</t>
   </si>
@@ -177,6 +177,54 @@
   </si>
   <si>
     <t xml:space="preserve">A equipe vistoriou o local em 20/09/2018, às 19:33 horas, onde constatou um burrinho sem rabo. A ação adotada foi a aplicação de multa. Caso a irregularidade retorne, favor registrar novo chamado 1746. A Coordenadoria de Controle Urbano agradece a confiança!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00042020202018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largo da Abolição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20751430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.8877508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.2964301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A equipe vistoriou o local em 21/09/2018, às 12:20 horas, onde constatou uma carroça de frutas. A ação adotada foi a emissão e fixação na estrutura da Notificação a Desocupação. Para realizar operação de ordenamento urbano foi aberto o processo administrativo 00042020202018 e será necessário apoio de outros órgãos públicos. Acompanhe o andamento do processo pelo site http://www2.rio.rj.gov.br/sicop/ . A Coordenadoria de Controle Urbano agradece a sua solicitação!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00042020212018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Novo Rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21530380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.833622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.3437879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informamos que a sua solicitação foi incluída no processo administrativo 00042020212018 com objetivo de planejar operação de ordenamento urbano, o que dependerá do forte apoio dos órgãos de segurança. Acompanhe o andamento do processo pelo site http://www2.rio.rj.gov.br/sicop/ . A Coordenadoria de Controle Urbano agradece a sua solicitação!</t>
   </si>
 </sst>
 </file>
@@ -563,6 +611,88 @@
         <v>54</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>43364.5138888889</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>43364.64375</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
